--- a/UNITY ms1.xlsx
+++ b/UNITY ms1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11850" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Team Info" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="395">
   <si>
     <t>Name</t>
   </si>
@@ -665,12 +665,6 @@
     <t>be able to view the list orphans provided by orphanage charity organizations</t>
   </si>
   <si>
-    <t xml:space="preserve">be able to sort the list orphans </t>
-  </si>
-  <si>
-    <t xml:space="preserve">be able to filter the list orphans </t>
-  </si>
-  <si>
     <t>I can donate to individual orphans based on urgency</t>
   </si>
   <si>
@@ -1070,9 +1064,6 @@
     <t>Interoperability</t>
   </si>
   <si>
-    <t>d</t>
-  </si>
-  <si>
     <t>Ahmed Samy Ahmed</t>
   </si>
   <si>
@@ -1181,9 +1172,6 @@
     <t>be able to request to send a homemade birthday cake and card to the orphanage by pressing a button ( send gift)</t>
   </si>
   <si>
-    <t>should be able to request direct chat with costumer service by pressing button (customer service)</t>
-  </si>
-  <si>
     <t>post a request with certain donation type categorized indicating a text description of what is needed</t>
   </si>
   <si>
@@ -1209,6 +1197,18 @@
   </si>
   <si>
     <t>post a list of free or low rent accommodation properties indicating details as ( size, rent price and location )</t>
+  </si>
+  <si>
+    <t>be able to sort the list orphans by urgency</t>
+  </si>
+  <si>
+    <t>I can proceed with scheduling an appointment with the chosen doctor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">be able to filter the list orphans by age, gender, and academic year </t>
+  </si>
+  <si>
+    <t>should be able to request direct chat with costumer service by pressing a button (customer service)</t>
   </si>
 </sst>
 </file>
@@ -1450,17 +1450,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1476,6 +1465,17 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1710,38 +1710,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="54.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
-        <v>367</v>
-      </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
+      <c r="A1" s="37" t="s">
+        <v>364</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="32"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="33"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
+      <c r="A3" s="40"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="33"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
+      <c r="A4" s="40"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -1759,13 +1759,13 @@
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="C7" s="36" t="s">
-        <v>351</v>
+        <v>347</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>348</v>
       </c>
       <c r="D7" s="5">
         <v>23</v>
@@ -1773,13 +1773,13 @@
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>352</v>
-      </c>
-      <c r="C8" s="36" t="s">
-        <v>353</v>
+        <v>349</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>350</v>
       </c>
       <c r="D8" s="5">
         <v>22</v>
@@ -1787,13 +1787,13 @@
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>356</v>
+        <v>352</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>353</v>
       </c>
       <c r="D9" s="5">
         <v>22</v>
@@ -1801,13 +1801,13 @@
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>358</v>
-      </c>
-      <c r="C10" s="36" t="s">
-        <v>359</v>
+        <v>355</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>356</v>
       </c>
       <c r="D10" s="5">
         <v>22</v>
@@ -1815,13 +1815,13 @@
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>361</v>
-      </c>
-      <c r="C11" s="36" t="s">
-        <v>365</v>
+        <v>358</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>362</v>
       </c>
       <c r="D11" s="5">
         <v>8</v>
@@ -1829,13 +1829,13 @@
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="C12" s="36" t="s">
-        <v>364</v>
+        <v>360</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>361</v>
       </c>
       <c r="D12" s="5">
         <v>27</v>
@@ -2853,16 +2853,18 @@
   </sheetPr>
   <dimension ref="A1:H164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
+      <selection activeCell="D154" sqref="D154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="31" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
-    <col min="4" max="4" width="28.85546875" customWidth="1"/>
-    <col min="5" max="6" width="35.5703125" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="41.5703125" customWidth="1"/>
+    <col min="5" max="5" width="56.85546875" customWidth="1"/>
+    <col min="6" max="6" width="47.5703125" customWidth="1"/>
     <col min="7" max="7" width="29" customWidth="1"/>
     <col min="8" max="8" width="54.85546875" customWidth="1"/>
   </cols>
@@ -2908,10 +2910,10 @@
     </row>
     <row r="3" spans="1:8" s="24" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C3" s="26">
         <v>1</v>
@@ -2920,10 +2922,10 @@
         <v>184</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F3" s="26" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G3" s="19" t="s">
         <v>18</v>
@@ -2932,7 +2934,7 @@
     </row>
     <row r="4" spans="1:8" s="24" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B4" s="10">
         <v>1</v>
@@ -2956,7 +2958,7 @@
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B5" s="9">
         <v>2</v>
@@ -2980,7 +2982,7 @@
     </row>
     <row r="6" spans="1:8" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B6" s="9">
         <v>3</v>
@@ -3004,7 +3006,7 @@
     </row>
     <row r="7" spans="1:8" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B7" s="9">
         <v>4</v>
@@ -3019,7 +3021,7 @@
         <v>20</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G7" s="19" t="s">
         <v>18</v>
@@ -3028,7 +3030,7 @@
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B8" s="10">
         <v>5</v>
@@ -3037,13 +3039,13 @@
         <v>6</v>
       </c>
       <c r="D8" s="27" t="s">
+        <v>291</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="F8" s="10" t="s">
         <v>293</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>294</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>295</v>
       </c>
       <c r="G8" s="19" t="s">
         <v>18</v>
@@ -3052,7 +3054,7 @@
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B9" s="10">
         <v>5</v>
@@ -3076,7 +3078,7 @@
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B10" s="10">
         <v>5</v>
@@ -3088,7 +3090,7 @@
         <v>185</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>155</v>
@@ -3100,7 +3102,7 @@
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B11" s="10">
         <v>8</v>
@@ -3124,7 +3126,7 @@
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B12" s="10">
         <v>8</v>
@@ -3148,7 +3150,7 @@
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B13" s="10">
         <v>10</v>
@@ -3172,7 +3174,7 @@
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B14" s="10">
         <v>7</v>
@@ -3196,10 +3198,10 @@
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C15" s="26">
         <v>13</v>
@@ -3208,7 +3210,7 @@
         <v>185</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>27</v>
@@ -3220,7 +3222,7 @@
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B16" s="10">
         <v>13</v>
@@ -3268,7 +3270,7 @@
     </row>
     <row r="18" spans="1:8" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B18" s="10">
         <v>13</v>
@@ -3280,16 +3282,16 @@
         <v>185</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G18" s="19" t="s">
         <v>18</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3414,7 +3416,7 @@
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B24" s="10">
         <v>14</v>
@@ -3426,7 +3428,7 @@
         <v>185</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>42</v>
@@ -3438,7 +3440,7 @@
     </row>
     <row r="25" spans="1:8" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B25" s="10">
         <v>21</v>
@@ -3447,15 +3449,15 @@
         <v>23</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>300</v>
-      </c>
-      <c r="G25" s="41" t="s">
+        <v>298</v>
+      </c>
+      <c r="G25" s="36" t="s">
         <v>18</v>
       </c>
       <c r="H25" s="10"/>
@@ -3486,7 +3488,7 @@
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B27" s="10">
         <v>99</v>
@@ -3498,7 +3500,7 @@
         <v>186</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F27" s="10" t="s">
         <v>43</v>
@@ -3510,7 +3512,7 @@
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B28" s="10">
         <v>99</v>
@@ -3522,7 +3524,7 @@
         <v>186</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F28" s="10" t="s">
         <v>112</v>
@@ -3549,7 +3551,7 @@
         <v>47</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="G29" s="19" t="s">
         <v>18</v>
@@ -3558,7 +3560,7 @@
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B30" s="10">
         <v>9</v>
@@ -3570,7 +3572,7 @@
         <v>21</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F30" s="10" t="s">
         <v>48</v>
@@ -3582,7 +3584,7 @@
     </row>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B31" s="10">
         <v>8</v>
@@ -3594,7 +3596,7 @@
         <v>21</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="F31" s="10" t="s">
         <v>49</v>
@@ -3606,7 +3608,7 @@
     </row>
     <row r="32" spans="1:8" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B32" s="10">
         <v>29</v>
@@ -3621,7 +3623,7 @@
         <v>105</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G32" s="20" t="s">
         <v>35</v>
@@ -3630,7 +3632,7 @@
     </row>
     <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B33" s="10">
         <v>30</v>
@@ -3690,7 +3692,7 @@
         <v>21</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F35" s="10" t="s">
         <v>52</v>
@@ -3831,10 +3833,10 @@
         <v>39</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F41" s="10" t="s">
         <v>59</v>
@@ -3858,7 +3860,7 @@
         <v>21</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F42" s="10" t="s">
         <v>162</v>
@@ -3882,7 +3884,7 @@
         <v>21</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F43" s="10" t="s">
         <v>60</v>
@@ -3906,10 +3908,10 @@
         <v>21</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G44" s="20" t="s">
         <v>18</v>
@@ -3930,10 +3932,10 @@
         <v>21</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G45" s="20" t="s">
         <v>18</v>
@@ -3954,10 +3956,10 @@
         <v>21</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G46" s="20" t="s">
         <v>18</v>
@@ -3978,10 +3980,10 @@
         <v>21</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G47" s="20" t="s">
         <v>18</v>
@@ -3993,7 +3995,7 @@
         <v>151</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C48" s="26">
         <v>46</v>
@@ -4002,10 +4004,10 @@
         <v>21</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G48" s="20" t="s">
         <v>18</v>
@@ -4014,7 +4016,7 @@
     </row>
     <row r="49" spans="1:8" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B49" s="10">
         <v>106</v>
@@ -4026,10 +4028,10 @@
         <v>21</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G49" s="20" t="s">
         <v>18</v>
@@ -4038,7 +4040,7 @@
     </row>
     <row r="50" spans="1:8" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B50" s="10">
         <v>47</v>
@@ -4050,10 +4052,10 @@
         <v>21</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G50" s="20" t="s">
         <v>18</v>
@@ -4065,7 +4067,7 @@
         <v>46</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C51" s="26">
         <v>49</v>
@@ -4127,7 +4129,7 @@
       <c r="F53" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="G53" s="41" t="s">
+      <c r="G53" s="36" t="s">
         <v>18</v>
       </c>
       <c r="H53" s="10"/>
@@ -4146,12 +4148,12 @@
         <v>21</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F54" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="G54" s="41" t="s">
+      <c r="G54" s="36" t="s">
         <v>18</v>
       </c>
       <c r="H54" s="10"/>
@@ -4170,12 +4172,12 @@
         <v>21</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="G55" s="41" t="s">
+        <v>262</v>
+      </c>
+      <c r="G55" s="36" t="s">
         <v>18</v>
       </c>
       <c r="H55" s="10"/>
@@ -4199,7 +4201,7 @@
       <c r="F56" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="G56" s="41" t="s">
+      <c r="G56" s="36" t="s">
         <v>18</v>
       </c>
       <c r="H56" s="10"/>
@@ -4218,12 +4220,12 @@
         <v>21</v>
       </c>
       <c r="E57" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="F57" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="F57" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="G57" s="41" t="s">
+      <c r="G57" s="36" t="s">
         <v>18</v>
       </c>
       <c r="H57" s="10"/>
@@ -4242,12 +4244,12 @@
         <v>21</v>
       </c>
       <c r="E58" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="F58" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="F58" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="G58" s="41" t="s">
+      <c r="G58" s="36" t="s">
         <v>18</v>
       </c>
       <c r="H58" s="10"/>
@@ -4266,12 +4268,12 @@
         <v>21</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F59" s="10" t="s">
-        <v>321</v>
-      </c>
-      <c r="G59" s="41" t="s">
+        <v>319</v>
+      </c>
+      <c r="G59" s="36" t="s">
         <v>18</v>
       </c>
       <c r="H59" s="10"/>
@@ -4290,12 +4292,12 @@
         <v>21</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="G60" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="G60" s="36" t="s">
         <v>18</v>
       </c>
       <c r="H60" s="10"/>
@@ -4314,12 +4316,12 @@
         <v>21</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="F61" s="10" t="s">
-        <v>322</v>
-      </c>
-      <c r="G61" s="41" t="s">
+        <v>320</v>
+      </c>
+      <c r="G61" s="36" t="s">
         <v>18</v>
       </c>
       <c r="H61" s="10"/>
@@ -4338,19 +4340,19 @@
         <v>21</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F62" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="G62" s="41" t="s">
+        <v>225</v>
+      </c>
+      <c r="G62" s="36" t="s">
         <v>18</v>
       </c>
       <c r="H62" s="10"/>
     </row>
     <row r="63" spans="1:8" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B63" s="10">
         <v>13</v>
@@ -4367,14 +4369,14 @@
       <c r="F63" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="G63" s="41" t="s">
+      <c r="G63" s="36" t="s">
         <v>18</v>
       </c>
       <c r="H63" s="10"/>
     </row>
     <row r="64" spans="1:8" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B64" s="10">
         <v>5</v>
@@ -4391,14 +4393,14 @@
       <c r="F64" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="G64" s="41" t="s">
+      <c r="G64" s="36" t="s">
         <v>18</v>
       </c>
       <c r="H64" s="10"/>
     </row>
     <row r="65" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="10" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B65" s="10">
         <v>5</v>
@@ -4410,19 +4412,19 @@
         <v>189</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="F65" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="G65" s="41" t="s">
+      <c r="G65" s="36" t="s">
         <v>18</v>
       </c>
       <c r="H65" s="10"/>
     </row>
     <row r="66" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="10" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B66" s="10">
         <v>5</v>
@@ -4439,7 +4441,7 @@
       <c r="F66" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="G66" s="41" t="s">
+      <c r="G66" s="36" t="s">
         <v>18</v>
       </c>
       <c r="H66" s="10"/>
@@ -4473,7 +4475,7 @@
         <v>61</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C68" s="26">
         <v>66</v>
@@ -4506,7 +4508,7 @@
         <v>69</v>
       </c>
       <c r="E69" s="10" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F69" s="10" t="s">
         <v>71</v>
@@ -4569,7 +4571,7 @@
         <v>61</v>
       </c>
       <c r="B72" s="16" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C72" s="26">
         <v>70</v>
@@ -4581,7 +4583,7 @@
         <v>75</v>
       </c>
       <c r="F72" s="10" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G72" s="20" t="s">
         <v>35</v>
@@ -4653,7 +4655,7 @@
         <v>165</v>
       </c>
       <c r="F75" s="10" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G75" s="20" t="s">
         <v>35</v>
@@ -4734,7 +4736,7 @@
     </row>
     <row r="79" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="10" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B79" s="10">
         <v>5</v>
@@ -4758,7 +4760,7 @@
     </row>
     <row r="80" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="10" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B80" s="10">
         <v>5</v>
@@ -4782,7 +4784,7 @@
     </row>
     <row r="81" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="10" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B81" s="10">
         <v>5</v>
@@ -4806,7 +4808,7 @@
     </row>
     <row r="82" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="10" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B82" s="10">
         <v>5</v>
@@ -4830,7 +4832,7 @@
     </row>
     <row r="83" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="10" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B83" s="10">
         <v>79</v>
@@ -4842,7 +4844,7 @@
         <v>181</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="F83" s="16" t="s">
         <v>90</v>
@@ -4866,10 +4868,10 @@
         <v>102</v>
       </c>
       <c r="E84" s="10" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F84" s="10" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G84" s="20" t="s">
         <v>18</v>
@@ -4878,7 +4880,7 @@
     </row>
     <row r="85" spans="1:8" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="10" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B85" s="10">
         <v>81</v>
@@ -4890,7 +4892,7 @@
         <v>181</v>
       </c>
       <c r="E85" s="10" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F85" s="10" t="s">
         <v>96</v>
@@ -4914,10 +4916,10 @@
         <v>102</v>
       </c>
       <c r="E86" s="10" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F86" s="10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G86" s="20" t="s">
         <v>18</v>
@@ -4941,7 +4943,7 @@
         <v>193</v>
       </c>
       <c r="F87" s="10" t="s">
-        <v>91</v>
+        <v>392</v>
       </c>
       <c r="G87" s="20" t="s">
         <v>18</v>
@@ -5010,7 +5012,7 @@
         <v>102</v>
       </c>
       <c r="E90" s="10" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F90" s="10" t="s">
         <v>97</v>
@@ -5034,7 +5036,7 @@
         <v>102</v>
       </c>
       <c r="E91" s="10" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="F91" s="10" t="s">
         <v>170</v>
@@ -5120,7 +5122,7 @@
     </row>
     <row r="95" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="10" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B95" s="10">
         <v>13</v>
@@ -5132,10 +5134,10 @@
         <v>102</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F95" s="10" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G95" s="20" t="s">
         <v>35</v>
@@ -5144,7 +5146,7 @@
     </row>
     <row r="96" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="10" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B96" s="10">
         <v>29</v>
@@ -5156,7 +5158,7 @@
         <v>102</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F96" s="10" t="s">
         <v>106</v>
@@ -5168,7 +5170,7 @@
     </row>
     <row r="97" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="10" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B97" s="10">
         <v>94</v>
@@ -5185,14 +5187,14 @@
       <c r="F97" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="G97" s="41" t="s">
+      <c r="G97" s="36" t="s">
         <v>18</v>
       </c>
       <c r="H97" s="10"/>
     </row>
     <row r="98" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="10" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B98" s="10">
         <v>95</v>
@@ -5209,7 +5211,7 @@
       <c r="F98" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="G98" s="41" t="s">
+      <c r="G98" s="36" t="s">
         <v>18</v>
       </c>
       <c r="H98" s="10"/>
@@ -5233,7 +5235,7 @@
       <c r="F99" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="G99" s="41" t="s">
+      <c r="G99" s="36" t="s">
         <v>18</v>
       </c>
       <c r="H99" s="10"/>
@@ -5257,7 +5259,7 @@
       <c r="F100" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="G100" s="41" t="s">
+      <c r="G100" s="36" t="s">
         <v>35</v>
       </c>
       <c r="H100" s="10"/>
@@ -5279,7 +5281,7 @@
         <v>41</v>
       </c>
       <c r="F101" s="10" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G101" s="20" t="s">
         <v>35</v>
@@ -5288,7 +5290,7 @@
     </row>
     <row r="102" spans="1:8" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="10" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B102" s="10">
         <v>5</v>
@@ -5300,19 +5302,19 @@
         <v>102</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="F102" s="10" t="s">
-        <v>327</v>
-      </c>
-      <c r="G102" s="41" t="s">
+        <v>325</v>
+      </c>
+      <c r="G102" s="36" t="s">
         <v>18</v>
       </c>
       <c r="H102" s="10"/>
     </row>
     <row r="103" spans="1:8" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="10" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B103" s="10">
         <v>99</v>
@@ -5324,19 +5326,19 @@
         <v>102</v>
       </c>
       <c r="E103" s="10" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F103" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="G103" s="41" t="s">
+        <v>234</v>
+      </c>
+      <c r="G103" s="36" t="s">
         <v>18</v>
       </c>
       <c r="H103" s="10"/>
     </row>
     <row r="104" spans="1:8" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="10" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B104" s="10">
         <v>78</v>
@@ -5348,21 +5350,21 @@
         <v>102</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F104" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="G104" s="41" t="s">
+        <v>240</v>
+      </c>
+      <c r="G104" s="36" t="s">
         <v>18</v>
       </c>
       <c r="H104" s="10"/>
     </row>
     <row r="105" spans="1:8" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="B105" s="35">
+        <v>231</v>
+      </c>
+      <c r="B105" s="30">
         <v>28102</v>
       </c>
       <c r="C105" s="26">
@@ -5372,21 +5374,21 @@
         <v>102</v>
       </c>
       <c r="E105" s="10" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F105" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="G105" s="41" t="s">
+        <v>242</v>
+      </c>
+      <c r="G105" s="36" t="s">
         <v>18</v>
       </c>
       <c r="H105" s="16" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="106" spans="1:8" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="10" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B106" s="10">
         <v>103</v>
@@ -5398,21 +5400,21 @@
         <v>102</v>
       </c>
       <c r="E106" s="10" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F106" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="G106" s="41" t="s">
+        <v>243</v>
+      </c>
+      <c r="G106" s="36" t="s">
         <v>18</v>
       </c>
       <c r="H106" s="10"/>
     </row>
     <row r="107" spans="1:8" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="B107" s="35">
+        <v>231</v>
+      </c>
+      <c r="B107" s="30">
         <v>103104</v>
       </c>
       <c r="C107" s="26">
@@ -5422,19 +5424,19 @@
         <v>102</v>
       </c>
       <c r="E107" s="10" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F107" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="G107" s="41" t="s">
+        <v>244</v>
+      </c>
+      <c r="G107" s="36" t="s">
         <v>18</v>
       </c>
       <c r="H107" s="10"/>
     </row>
     <row r="108" spans="1:8" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="10" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B108" s="10">
         <v>33</v>
@@ -5446,19 +5448,19 @@
         <v>102</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F108" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="G108" s="41" t="s">
+        <v>267</v>
+      </c>
+      <c r="G108" s="36" t="s">
         <v>18</v>
       </c>
       <c r="H108" s="10"/>
     </row>
     <row r="109" spans="1:8" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="10" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B109" s="10">
         <v>126</v>
@@ -5470,19 +5472,19 @@
         <v>102</v>
       </c>
       <c r="E109" s="10" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F109" s="10" t="s">
-        <v>332</v>
-      </c>
-      <c r="G109" s="41" t="s">
+        <v>330</v>
+      </c>
+      <c r="G109" s="36" t="s">
         <v>18</v>
       </c>
       <c r="H109" s="10"/>
     </row>
     <row r="110" spans="1:8" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="10" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B110" s="10">
         <v>107</v>
@@ -5494,19 +5496,19 @@
         <v>102</v>
       </c>
       <c r="E110" s="10" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F110" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="G110" s="41" t="s">
+        <v>274</v>
+      </c>
+      <c r="G110" s="36" t="s">
         <v>18</v>
       </c>
       <c r="H110" s="10"/>
     </row>
     <row r="111" spans="1:8" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="10" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B111" s="10">
         <v>108</v>
@@ -5518,19 +5520,19 @@
         <v>102</v>
       </c>
       <c r="E111" s="10" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F111" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="G111" s="41" t="s">
+        <v>276</v>
+      </c>
+      <c r="G111" s="36" t="s">
         <v>18</v>
       </c>
       <c r="H111" s="10"/>
     </row>
     <row r="112" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="10" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B112" s="10">
         <v>5</v>
@@ -5548,13 +5550,13 @@
         <v>115</v>
       </c>
       <c r="G112" s="20" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="H112" s="10"/>
     </row>
     <row r="113" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="10" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B113" s="10">
         <v>138</v>
@@ -5572,13 +5574,13 @@
         <v>118</v>
       </c>
       <c r="G113" s="20" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="H113" s="10"/>
     </row>
     <row r="114" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="10" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B114" s="10">
         <v>111</v>
@@ -5596,13 +5598,13 @@
         <v>119</v>
       </c>
       <c r="G114" s="20" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="H114" s="10"/>
     </row>
     <row r="115" spans="1:8" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="10" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B115" s="10">
         <v>112</v>
@@ -5620,13 +5622,13 @@
         <v>153</v>
       </c>
       <c r="G115" s="20" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="H115" s="10"/>
     </row>
     <row r="116" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="10" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B116" s="10">
         <v>46</v>
@@ -5638,19 +5640,19 @@
         <v>63</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F116" s="10" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G116" s="20" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="H116" s="10"/>
     </row>
     <row r="117" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="10" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B117" s="10">
         <v>79</v>
@@ -5665,16 +5667,16 @@
         <v>120</v>
       </c>
       <c r="F117" s="10" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G117" s="20" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="H117" s="10"/>
     </row>
     <row r="118" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="10" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B118" s="10">
         <v>115</v>
@@ -5692,7 +5694,7 @@
         <v>122</v>
       </c>
       <c r="G118" s="20" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="H118" s="10"/>
     </row>
@@ -5716,7 +5718,7 @@
         <v>174</v>
       </c>
       <c r="G119" s="20" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="H119" s="10"/>
     </row>
@@ -5740,7 +5742,7 @@
         <v>123</v>
       </c>
       <c r="G120" s="20" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="H120" s="10"/>
     </row>
@@ -5764,7 +5766,7 @@
         <v>169</v>
       </c>
       <c r="G121" s="20" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="H121" s="10"/>
     </row>
@@ -5788,7 +5790,7 @@
         <v>200</v>
       </c>
       <c r="G122" s="20" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="H122" s="10"/>
     </row>
@@ -5806,13 +5808,13 @@
         <v>63</v>
       </c>
       <c r="E123" s="10" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F123" s="10" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G123" s="20" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="H123" s="10"/>
     </row>
@@ -5836,7 +5838,7 @@
         <v>129</v>
       </c>
       <c r="G124" s="20" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="H124" s="10"/>
     </row>
@@ -5860,7 +5862,7 @@
         <v>128</v>
       </c>
       <c r="G125" s="20" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="H125" s="10"/>
     </row>
@@ -5868,7 +5870,7 @@
       <c r="A126" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="B126" s="35">
+      <c r="B126" s="30">
         <v>33122123</v>
       </c>
       <c r="C126" s="26">
@@ -5878,19 +5880,19 @@
         <v>63</v>
       </c>
       <c r="E126" s="10" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F126" s="10" t="s">
         <v>202</v>
       </c>
       <c r="G126" s="20" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="H126" s="10"/>
     </row>
     <row r="127" spans="1:8" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="10" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B127" s="10">
         <v>5</v>
@@ -5902,19 +5904,19 @@
         <v>63</v>
       </c>
       <c r="E127" s="10" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F127" s="10" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G127" s="20" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="H127" s="10"/>
     </row>
     <row r="128" spans="1:8" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="10" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B128" s="10">
         <v>125</v>
@@ -5926,19 +5928,19 @@
         <v>63</v>
       </c>
       <c r="E128" s="10" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F128" s="10" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G128" s="20" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="H128" s="10"/>
     </row>
     <row r="129" spans="1:8" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="10" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B129" s="10">
         <v>108</v>
@@ -5950,19 +5952,19 @@
         <v>63</v>
       </c>
       <c r="E129" s="10" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="F129" s="10" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G129" s="20" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="H129" s="10"/>
     </row>
     <row r="130" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="10" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B130" s="10">
         <v>13</v>
@@ -5980,13 +5982,13 @@
         <v>132</v>
       </c>
       <c r="G130" s="20" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="H130" s="10"/>
     </row>
     <row r="131" spans="1:8" s="25" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="10" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B131" s="10">
         <v>13</v>
@@ -5998,13 +6000,13 @@
         <v>63</v>
       </c>
       <c r="E131" s="10" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F131" s="10" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G131" s="20" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="H131" s="10"/>
     </row>
@@ -6022,19 +6024,19 @@
         <v>63</v>
       </c>
       <c r="E132" s="10" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F132" s="10" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G132" s="20" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="H132" s="10"/>
     </row>
     <row r="133" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="10" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B133" s="10">
         <v>13</v>
@@ -6046,13 +6048,13 @@
         <v>63</v>
       </c>
       <c r="E133" s="10" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="F133" s="10" t="s">
         <v>131</v>
       </c>
       <c r="G133" s="20" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="H133" s="10"/>
     </row>
@@ -6070,19 +6072,19 @@
         <v>63</v>
       </c>
       <c r="E134" s="10" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F134" s="10" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G134" s="20" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="H134" s="10"/>
     </row>
     <row r="135" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="10" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B135" s="10">
         <v>25</v>
@@ -6100,16 +6102,16 @@
         <v>138</v>
       </c>
       <c r="G135" s="20" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="H135" s="10"/>
     </row>
     <row r="136" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="10" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B136" s="10" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C136" s="26">
         <v>134</v>
@@ -6121,10 +6123,10 @@
         <v>133</v>
       </c>
       <c r="F136" s="10" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G136" s="20" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="H136" s="10"/>
     </row>
@@ -6142,22 +6144,22 @@
         <v>63</v>
       </c>
       <c r="E137" s="10" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F137" s="10" t="s">
         <v>134</v>
       </c>
       <c r="G137" s="20" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="H137" s="10"/>
     </row>
     <row r="138" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="10" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C138" s="26">
         <v>136</v>
@@ -6172,13 +6174,13 @@
         <v>136</v>
       </c>
       <c r="G138" s="20" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="H138" s="10"/>
     </row>
     <row r="139" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="10" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B139" s="10">
         <v>26</v>
@@ -6196,13 +6198,13 @@
         <v>140</v>
       </c>
       <c r="G139" s="20" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="H139" s="10"/>
     </row>
     <row r="140" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="10" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B140" s="10"/>
       <c r="C140" s="26">
@@ -6212,19 +6214,19 @@
         <v>141</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="F140" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="G140" s="41" t="s">
+      <c r="G140" s="36" t="s">
         <v>18</v>
       </c>
       <c r="H140" s="10"/>
     </row>
     <row r="141" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="10" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B141" s="10">
         <v>138</v>
@@ -6241,14 +6243,14 @@
       <c r="F141" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="G141" s="41" t="s">
+      <c r="G141" s="36" t="s">
         <v>18</v>
       </c>
       <c r="H141" s="10"/>
     </row>
     <row r="142" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="10" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B142" s="10">
         <v>138</v>
@@ -6265,14 +6267,14 @@
       <c r="F142" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="G142" s="41" t="s">
+      <c r="G142" s="36" t="s">
         <v>18</v>
       </c>
       <c r="H142" s="10"/>
     </row>
     <row r="143" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="10" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B143" s="10">
         <v>113</v>
@@ -6289,14 +6291,14 @@
       <c r="F143" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="G143" s="41" t="s">
+      <c r="G143" s="36" t="s">
         <v>18</v>
       </c>
       <c r="H143" s="10"/>
     </row>
     <row r="144" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="10" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B144" s="10">
         <v>141</v>
@@ -6313,14 +6315,14 @@
       <c r="F144" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="G144" s="41" t="s">
+      <c r="G144" s="36" t="s">
         <v>18</v>
       </c>
       <c r="H144" s="10"/>
     </row>
     <row r="145" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="10" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B145" s="10">
         <v>138</v>
@@ -6337,7 +6339,7 @@
       <c r="F145" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="G145" s="41" t="s">
+      <c r="G145" s="36" t="s">
         <v>18</v>
       </c>
       <c r="H145" s="10"/>
@@ -6361,7 +6363,7 @@
       <c r="F146" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="G146" s="41" t="s">
+      <c r="G146" s="36" t="s">
         <v>18</v>
       </c>
       <c r="H146" s="10"/>
@@ -6380,12 +6382,12 @@
         <v>141</v>
       </c>
       <c r="E147" s="10" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F147" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="G147" s="41" t="s">
+      <c r="G147" s="36" t="s">
         <v>18</v>
       </c>
       <c r="H147" s="10"/>
@@ -6404,12 +6406,12 @@
         <v>141</v>
       </c>
       <c r="E148" s="10" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F148" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="G148" s="41" t="s">
+        <v>216</v>
+      </c>
+      <c r="G148" s="36" t="s">
         <v>18</v>
       </c>
       <c r="H148" s="10"/>
@@ -6428,12 +6430,12 @@
         <v>141</v>
       </c>
       <c r="E149" s="10" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F149" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="G149" s="41" t="s">
+        <v>277</v>
+      </c>
+      <c r="G149" s="36" t="s">
         <v>18</v>
       </c>
       <c r="H149" s="10"/>
@@ -6452,12 +6454,12 @@
         <v>141</v>
       </c>
       <c r="E150" s="10" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F150" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="G150" s="41" t="s">
+        <v>221</v>
+      </c>
+      <c r="G150" s="36" t="s">
         <v>18</v>
       </c>
       <c r="H150" s="10"/>
@@ -6476,19 +6478,19 @@
         <v>141</v>
       </c>
       <c r="E151" s="10" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F151" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="G151" s="41" t="s">
+        <v>227</v>
+      </c>
+      <c r="G151" s="36" t="s">
         <v>18</v>
       </c>
       <c r="H151" s="10"/>
     </row>
     <row r="152" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="10" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B152" s="10">
         <v>143</v>
@@ -6500,12 +6502,12 @@
         <v>141</v>
       </c>
       <c r="E152" s="16" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="F152" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="G152" s="41" t="s">
+        <v>232</v>
+      </c>
+      <c r="G152" s="36" t="s">
         <v>18</v>
       </c>
       <c r="H152" s="10"/>
@@ -6646,7 +6648,7 @@
   <dimension ref="A1:Y998"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6700,14 +6702,14 @@
         <v>1</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>340</v>
-      </c>
-      <c r="C2" s="37" t="s">
-        <v>368</v>
+        <v>338</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>365</v>
       </c>
       <c r="D2" s="16"/>
       <c r="E2" s="16" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -6735,14 +6737,14 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>341</v>
-      </c>
-      <c r="C3" s="40" t="s">
-        <v>377</v>
+        <v>339</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>374</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="16" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -6770,14 +6772,14 @@
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="16" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -6805,13 +6807,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>344</v>
-      </c>
-      <c r="C5" s="39" t="s">
-        <v>373</v>
+        <v>342</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>370</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="1"/>
@@ -6840,10 +6842,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="10">
@@ -6875,13 +6877,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C7" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="1"/>
@@ -6910,14 +6912,14 @@
         <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>347</v>
-      </c>
-      <c r="C8" s="38" t="s">
-        <v>369</v>
+        <v>345</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>366</v>
       </c>
       <c r="D8" s="10"/>
-      <c r="E8" s="10">
-        <v>115</v>
+      <c r="E8" s="30">
+        <v>115132</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -6945,10 +6947,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>370</v>
-      </c>
-      <c r="C9" s="38" t="s">
-        <v>371</v>
+        <v>367</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>368</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="10">
@@ -7086,9 +7088,7 @@
     <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="1" t="s">
-        <v>348</v>
-      </c>
+      <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
